--- a/字节跳动面试题总结/题目频率分析.xlsx
+++ b/字节跳动面试题总结/题目频率分析.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\doc\blog\字节跳动面试题总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29394DB8-D9C7-4BEA-9954-BCD34DAEA7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A773F5-5E81-4CFA-9DDC-8D681261962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="16457" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="2" r:id="rId1"/>
     <sheet name="enum" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目!$A$1:$D$658</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目!$A$1:$E$658</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="713">
   <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3212,8 +3212,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3238,7 +3238,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -3291,7 +3291,7 @@
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -3305,10 +3305,10 @@
         <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
@@ -3406,7 +3406,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -3840,7 +3840,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -4270,6 +4270,9 @@
       <c r="D75" t="s">
         <v>76</v>
       </c>
+      <c r="E75" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
@@ -4310,7 +4313,7 @@
         <v>416</v>
       </c>
       <c r="E78" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -4383,7 +4386,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>11</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>5</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>5</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="123" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>5</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>700</v>
       </c>
       <c r="E130" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -5223,7 +5226,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>11</v>
       </c>
@@ -6539,7 +6542,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>11</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>72</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="240" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -6581,7 +6584,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>11</v>
       </c>
@@ -6592,10 +6595,10 @@
         <v>94</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>11</v>
       </c>
@@ -6606,10 +6609,10 @@
         <v>95</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>11</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>11</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>11</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="269" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>5</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="270" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>5</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="271" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>5</v>
       </c>
@@ -7043,7 +7046,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="274" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>5</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="275" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>5</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="276" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="278" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>5</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="282" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>5</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="286" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>5</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>540</v>
       </c>
       <c r="E313" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="314" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -7614,7 +7617,7 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="315" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -7897,7 +7900,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="335" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>35</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>22</v>
       </c>
@@ -9419,6 +9422,9 @@
       <c r="D443" t="s">
         <v>341</v>
       </c>
+      <c r="E443" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="444" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B444" t="s">
@@ -9994,7 +10000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="485" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B485" t="s">
         <v>5</v>
       </c>
@@ -10022,7 +10028,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="487" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B487" t="s">
         <v>5</v>
       </c>
@@ -10288,7 +10294,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B506" t="s">
         <v>11</v>
       </c>
@@ -10414,7 +10420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="515" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B515" t="s">
         <v>5</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="595" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B595" t="s">
         <v>5</v>
       </c>
@@ -11674,7 +11680,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="605" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B605" t="s">
         <v>11</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="606" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B606" t="s">
         <v>11</v>
       </c>
@@ -11769,7 +11775,7 @@
         <v>651</v>
       </c>
       <c r="E611" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="612" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
@@ -11870,7 +11876,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="619" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B619" t="s">
         <v>5</v>
       </c>
@@ -12094,7 +12100,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="635" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B635" t="s">
         <v>464</v>
       </c>
@@ -12174,6 +12180,9 @@
       <c r="D640" t="s">
         <v>684</v>
       </c>
+      <c r="E640" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="641" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B641" t="s">
@@ -12185,6 +12194,9 @@
       <c r="D641" t="s">
         <v>686</v>
       </c>
+      <c r="E641" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="642" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B642" t="s">
@@ -12196,6 +12208,9 @@
       <c r="D642" t="s">
         <v>687</v>
       </c>
+      <c r="E642" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="643" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B643" t="s">
@@ -12207,6 +12222,9 @@
       <c r="D643" t="s">
         <v>689</v>
       </c>
+      <c r="E643" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="644" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B644" t="s">
@@ -12218,6 +12236,9 @@
       <c r="D644" t="s">
         <v>691</v>
       </c>
+      <c r="E644" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="645" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B645" t="s">
@@ -12229,6 +12250,9 @@
       <c r="D645" t="s">
         <v>692</v>
       </c>
+      <c r="E645" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="646" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B646" t="s">
@@ -12240,8 +12264,11 @@
       <c r="D646" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="647" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E646" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="647" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B647" t="s">
         <v>11</v>
       </c>
@@ -12265,6 +12292,9 @@
       <c r="D648" t="s">
         <v>695</v>
       </c>
+      <c r="E648" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="649" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B649" t="s">
@@ -12276,6 +12306,9 @@
       <c r="D649" t="s">
         <v>696</v>
       </c>
+      <c r="E649" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="650" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B650" t="s">
@@ -12287,6 +12320,9 @@
       <c r="D650" t="s">
         <v>697</v>
       </c>
+      <c r="E650" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="651" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B651" t="s">
@@ -12298,6 +12334,9 @@
       <c r="D651" t="s">
         <v>698</v>
       </c>
+      <c r="E651" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="652" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B652" t="s">
@@ -12309,6 +12348,9 @@
       <c r="D652" t="s">
         <v>699</v>
       </c>
+      <c r="E652" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="653" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B653" t="s">
@@ -12320,6 +12362,9 @@
       <c r="D653" t="s">
         <v>702</v>
       </c>
+      <c r="E653" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="654" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B654" t="s">
@@ -12331,6 +12376,9 @@
       <c r="D654" t="s">
         <v>705</v>
       </c>
+      <c r="E654" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="655" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B655" t="s">
@@ -12342,6 +12390,9 @@
       <c r="D655" t="s">
         <v>707</v>
       </c>
+      <c r="E655" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="656" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B656" t="s">
@@ -12353,8 +12404,11 @@
       <c r="D656" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="657" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E656" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="657" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B657" t="s">
         <v>495</v>
       </c>
@@ -12364,8 +12418,11 @@
       <c r="D657" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="658" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E657" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="658" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B658" t="s">
         <v>38</v>
       </c>
@@ -12375,18 +12432,22 @@
       <c r="D658" t="s">
         <v>710</v>
       </c>
+      <c r="E658" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D658" xr:uid="{34DFE4F6-54B9-4FAF-B6AB-3FD1A937ACC5}">
+  <autoFilter ref="A1:E658" xr:uid="{4493AC47-BC72-4381-B845-5F17FA479A42}">
     <filterColumn colId="3">
       <customFilters>
-        <customFilter val="*索引*"/>
-        <customFilter val="*B+*"/>
+        <customFilter val="*redis*"/>
       </customFilters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D658">
-      <sortCondition descending="1" ref="C1:C638"/>
-    </sortState>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="未知"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/字节跳动面试题总结/题目频率分析.xlsx
+++ b/字节跳动面试题总结/题目频率分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\doc\blog\字节跳动面试题总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A773F5-5E81-4CFA-9DDC-8D681261962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354552C5-355C-4E52-BDE1-AA22A2C03378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="16457" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="715">
   <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2881,6 +2881,14 @@
   </si>
   <si>
     <t>mysql命中索引但是效率低可能是什么原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何解决弱网下http链接问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP报文结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3209,11 +3217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B291AD-CFC7-4FD7-8DC5-66899F06C739}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E658"/>
+  <dimension ref="A1:E660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="E660" sqref="E660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3238,7 +3245,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3406,7 +3413,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3637,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>122</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +3749,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>38</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>22</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>9</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>27</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +3861,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>29</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>29</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>27</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>35</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>9</v>
       </c>
@@ -3966,7 +3973,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>38</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>22</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>38</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>9</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>29</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>110</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>22</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>38</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>27</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>11</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>38</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>9</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>495</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>29</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>29</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>9</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>9</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>9</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>27</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="83" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>27</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>11</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="85" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>11</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="86" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>162</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="87" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="89" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="90" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>5</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="91" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>29</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="92" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>29</v>
       </c>
@@ -4512,7 +4519,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="93" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>29</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>35</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>110</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>122</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>22</v>
       </c>
@@ -4582,7 +4589,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>22</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>22</v>
       </c>
@@ -4610,7 +4617,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>22</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="101" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>22</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>22</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="103" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>22</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>22</v>
       </c>
@@ -4680,7 +4687,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="105" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>38</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>38</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="107" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>38</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="108" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>38</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="109" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>38</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="110" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>39</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>38</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="112" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>42</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="113" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4813,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>9</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="115" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4841,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>9</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="117" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>27</v>
       </c>
@@ -4862,7 +4869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>27</v>
       </c>
@@ -4876,7 +4883,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="119" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>27</v>
       </c>
@@ -4890,7 +4897,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="120" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>27</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="121" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>11</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="124" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +4981,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="126" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>29</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="127" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>29</v>
       </c>
@@ -5002,7 +5009,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>29</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="129" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>29</v>
       </c>
@@ -5030,7 +5037,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="130" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>29</v>
       </c>
@@ -5044,7 +5051,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="131" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>22</v>
       </c>
@@ -5072,7 +5079,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="133" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>22</v>
       </c>
@@ -5086,7 +5093,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>22</v>
       </c>
@@ -5100,7 +5107,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>22</v>
       </c>
@@ -5114,7 +5121,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="136" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>22</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>22</v>
       </c>
@@ -5142,7 +5149,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="138" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>22</v>
       </c>
@@ -5156,7 +5163,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="139" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>22</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>22</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>38</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="28.3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>38</v>
       </c>
@@ -5212,7 +5219,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>38</v>
       </c>
@@ -5240,7 +5247,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>22</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>22</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>22</v>
       </c>
@@ -5296,7 +5303,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>35</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>22</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>22</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>11</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>9</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>11</v>
       </c>
@@ -5380,7 +5387,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>11</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>11</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>29</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>166</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>38</v>
       </c>
@@ -5464,7 +5471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>11</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="162" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>9</v>
       </c>
@@ -5492,7 +5499,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>0</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>42</v>
       </c>
@@ -5520,7 +5527,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="165" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>42</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>209</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="167" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>204</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>204</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>204</v>
       </c>
@@ -5590,7 +5597,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>9</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>9</v>
       </c>
@@ -5632,7 +5639,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>9</v>
       </c>
@@ -5646,7 +5653,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="174" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>9</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="175" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>9</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="176" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>9</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="178" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="179" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>9</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="180" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>9</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="181" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>9</v>
       </c>
@@ -5758,7 +5765,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>9</v>
       </c>
@@ -5772,7 +5779,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>9</v>
       </c>
@@ -5786,7 +5793,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>9</v>
       </c>
@@ -5800,7 +5807,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="185" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>9</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>9</v>
       </c>
@@ -5828,7 +5835,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="187" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>9</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>9</v>
       </c>
@@ -5856,7 +5863,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="189" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>9</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="190" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>9</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="191" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="192" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>9</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>9</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>9</v>
       </c>
@@ -5954,7 +5961,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>9</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>9</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>9</v>
       </c>
@@ -5996,7 +6003,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>9</v>
       </c>
@@ -6010,7 +6017,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>9</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>9</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>9</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>9</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>9</v>
       </c>
@@ -6080,7 +6087,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>9</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>9</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>9</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>9</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>9</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>9</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>9</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>9</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="213" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>9</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="214" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>9</v>
       </c>
@@ -6220,7 +6227,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>9</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>9</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>9</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>27</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>27</v>
       </c>
@@ -6290,7 +6297,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>27</v>
       </c>
@@ -6304,7 +6311,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>27</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>27</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="223" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>27</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="224" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>27</v>
       </c>
@@ -6360,7 +6367,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="225" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>27</v>
       </c>
@@ -6374,7 +6381,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="226" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>27</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="227" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>27</v>
       </c>
@@ -6402,7 +6409,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="228" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>27</v>
       </c>
@@ -6416,7 +6423,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="229" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>27</v>
       </c>
@@ -6430,7 +6437,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>27</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>27</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="232" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>27</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="233" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>3</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="234" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>115</v>
       </c>
@@ -6500,7 +6507,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="236" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>11</v>
       </c>
@@ -6528,7 +6535,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="237" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>11</v>
       </c>
@@ -6542,7 +6549,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="238" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="239" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="240" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>11</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>11</v>
       </c>
@@ -6598,7 +6605,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>11</v>
       </c>
@@ -6612,7 +6619,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>11</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="245" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>11</v>
       </c>
@@ -6654,7 +6661,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="246" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>11</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="247" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>11</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="248" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>11</v>
       </c>
@@ -6696,7 +6703,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="249" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>11</v>
       </c>
@@ -6710,7 +6717,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="250" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>11</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="251" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>11</v>
       </c>
@@ -6738,7 +6745,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="252" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>11</v>
       </c>
@@ -6752,7 +6759,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="253" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>11</v>
       </c>
@@ -6766,7 +6773,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="254" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6787,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="255" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="256" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>11</v>
       </c>
@@ -6808,7 +6815,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="257" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>11</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="258" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>11</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="259" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>11</v>
       </c>
@@ -6850,7 +6857,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="260" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>11</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="261" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>11</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="263" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>162</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="264" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>162</v>
       </c>
@@ -6920,7 +6927,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="265" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>166</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="266" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>166</v>
       </c>
@@ -6948,7 +6955,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="267" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>166</v>
       </c>
@@ -6962,7 +6969,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="268" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>166</v>
       </c>
@@ -7018,7 +7025,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="272" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="273" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>5</v>
       </c>
@@ -7088,7 +7095,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>5</v>
       </c>
@@ -7116,7 +7123,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="279" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>5</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="280" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>5</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="281" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>5</v>
       </c>
@@ -7172,7 +7179,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="283" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>5</v>
       </c>
@@ -7186,7 +7193,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="284" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>5</v>
       </c>
@@ -7200,7 +7207,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="285" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>5</v>
       </c>
@@ -7228,7 +7235,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="287" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>5</v>
       </c>
@@ -7242,7 +7249,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>5</v>
       </c>
@@ -7256,7 +7263,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="289" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>1</v>
       </c>
@@ -7270,7 +7277,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="290" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>1</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="291" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>7</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="292" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7319,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="293" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>7</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="294" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>7</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="295" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>7</v>
       </c>
@@ -7354,7 +7361,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>7</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="297" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7389,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="298" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>7</v>
       </c>
@@ -7396,7 +7403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="14.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:5" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>7</v>
       </c>
@@ -7410,7 +7417,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="17.149999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>7</v>
       </c>
@@ -7424,7 +7431,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="301" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>7</v>
       </c>
@@ -7438,7 +7445,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="302" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>29</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="303" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>29</v>
       </c>
@@ -7466,7 +7473,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="304" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>29</v>
       </c>
@@ -7480,7 +7487,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="305" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>29</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="306" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>29</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="307" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>29</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="308" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>29</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="309" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>29</v>
       </c>
@@ -7550,7 +7557,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="310" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>29</v>
       </c>
@@ -7564,7 +7571,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="311" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>29</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="312" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>29</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="313" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>29</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="314" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>29</v>
       </c>
@@ -7620,7 +7627,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="315" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>29</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="316" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>29</v>
       </c>
@@ -7648,7 +7655,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="317" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>29</v>
       </c>
@@ -7662,7 +7669,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="318" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>29</v>
       </c>
@@ -7676,7 +7683,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="319" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>29</v>
       </c>
@@ -7690,7 +7697,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="320" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>29</v>
       </c>
@@ -7704,7 +7711,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="321" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>29</v>
       </c>
@@ -7718,7 +7725,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="322" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>29</v>
       </c>
@@ -7732,7 +7739,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="323" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>29</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="324" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>29</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="325" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>29</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="326" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>35</v>
       </c>
@@ -7788,7 +7795,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="327" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>35</v>
       </c>
@@ -7802,7 +7809,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="328" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>35</v>
       </c>
@@ -7816,7 +7823,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="329" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>35</v>
       </c>
@@ -7830,7 +7837,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="56.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:5" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>35</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="331" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>35</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="332" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>35</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="333" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>35</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="334" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>35</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="336" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>35</v>
       </c>
@@ -7928,7 +7935,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="337" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>35</v>
       </c>
@@ -7942,7 +7949,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="338" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>35</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="339" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>35</v>
       </c>
@@ -7970,7 +7977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="340" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>35</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="341" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>35</v>
       </c>
@@ -7998,7 +8005,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="342" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>35</v>
       </c>
@@ -8012,7 +8019,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="343" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>35</v>
       </c>
@@ -8026,7 +8033,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="344" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>35</v>
       </c>
@@ -8040,7 +8047,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="345" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>110</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="346" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>110</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="347" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>122</v>
       </c>
@@ -8082,7 +8089,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="348" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>122</v>
       </c>
@@ -8096,7 +8103,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="349" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>122</v>
       </c>
@@ -8110,7 +8117,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="350" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>122</v>
       </c>
@@ -8124,7 +8131,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="351" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>122</v>
       </c>
@@ -8138,7 +8145,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="352" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>122</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="353" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>22</v>
       </c>
@@ -8166,7 +8173,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="354" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>22</v>
       </c>
@@ -8180,7 +8187,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="355" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>22</v>
       </c>
@@ -8194,7 +8201,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>23</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="357" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>23</v>
       </c>
@@ -8222,7 +8229,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="358" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>22</v>
       </c>
@@ -8236,7 +8243,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="359" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>22</v>
       </c>
@@ -8250,7 +8257,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="360" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>22</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="70.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:5" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>22</v>
       </c>
@@ -8278,7 +8285,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="362" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>22</v>
       </c>
@@ -8292,7 +8299,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="363" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>22</v>
       </c>
@@ -8306,7 +8313,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="364" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>22</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="365" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>22</v>
       </c>
@@ -8334,7 +8341,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="366" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>22</v>
       </c>
@@ -8348,7 +8355,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="367" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>22</v>
       </c>
@@ -8362,7 +8369,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="368" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>22</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="369" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>22</v>
       </c>
@@ -8390,7 +8397,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="226.3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:5" ht="226.3" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>22</v>
       </c>
@@ -8404,7 +8411,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="371" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>22</v>
       </c>
@@ -8418,7 +8425,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="372" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>22</v>
       </c>
@@ -8432,7 +8439,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="373" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>22</v>
       </c>
@@ -8446,7 +8453,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="374" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>22</v>
       </c>
@@ -8460,7 +8467,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="375" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>22</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="376" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>22</v>
       </c>
@@ -8488,7 +8495,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="377" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>22</v>
       </c>
@@ -8502,7 +8509,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="378" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>22</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="379" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>22</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="380" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>22</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="381" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>22</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="382" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>22</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="383" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>22</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="56.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:5" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>22</v>
       </c>
@@ -8600,7 +8607,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="385" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>22</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="386" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>22</v>
       </c>
@@ -8628,7 +8635,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="409.6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>22</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="388" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>22</v>
       </c>
@@ -8656,7 +8663,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="389" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>22</v>
       </c>
@@ -8670,7 +8677,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="390" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>22</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="391" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>22</v>
       </c>
@@ -8698,7 +8705,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="392" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>22</v>
       </c>
@@ -8712,7 +8719,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="393" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>22</v>
       </c>
@@ -8726,7 +8733,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="394" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>22</v>
       </c>
@@ -8740,7 +8747,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="395" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>22</v>
       </c>
@@ -8754,7 +8761,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="396" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>22</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="70.75" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:5" ht="70.75" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>22</v>
       </c>
@@ -8782,7 +8789,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="398" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>22</v>
       </c>
@@ -8796,7 +8803,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="399" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>22</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="400" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>22</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="401" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>22</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>22</v>
       </c>
@@ -8852,7 +8859,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="403" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>22</v>
       </c>
@@ -8866,7 +8873,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="404" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>22</v>
       </c>
@@ -8880,7 +8887,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="405" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>22</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="406" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>22</v>
       </c>
@@ -8908,7 +8915,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>22</v>
       </c>
@@ -8922,7 +8929,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="408" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>22</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="84.9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:5" ht="84.9" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>22</v>
       </c>
@@ -8950,7 +8957,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="410" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>22</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="411" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>22</v>
       </c>
@@ -8978,7 +8985,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="412" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>22</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="413" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>22</v>
       </c>
@@ -9006,7 +9013,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="414" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>22</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="415" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>22</v>
       </c>
@@ -9034,7 +9041,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="416" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>22</v>
       </c>
@@ -9048,7 +9055,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="417" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>22</v>
       </c>
@@ -9062,7 +9069,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="418" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>22</v>
       </c>
@@ -9076,7 +9083,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="419" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>22</v>
       </c>
@@ -9090,7 +9097,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="420" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>22</v>
       </c>
@@ -9104,7 +9111,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="421" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>22</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="422" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>22</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="423" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>22</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="424" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>38</v>
       </c>
@@ -9160,7 +9167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="425" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>38</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="426" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>38</v>
       </c>
@@ -9188,7 +9195,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>38</v>
       </c>
@@ -9202,7 +9209,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="428" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>38</v>
       </c>
@@ -9216,7 +9223,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="429" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>38</v>
       </c>
@@ -9230,7 +9237,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="430" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>38</v>
       </c>
@@ -9244,7 +9251,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="431" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>38</v>
       </c>
@@ -9258,7 +9265,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="432" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>38</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="433" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>38</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>38</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="435" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>38</v>
       </c>
@@ -9314,7 +9321,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="436" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>38</v>
       </c>
@@ -9328,7 +9335,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="437" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>38</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="438" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>39</v>
       </c>
@@ -9356,7 +9363,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="439" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>38</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>38</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="441" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>38</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="442" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>38</v>
       </c>
@@ -9412,7 +9419,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="443" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>38</v>
       </c>
@@ -9426,7 +9433,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="444" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B444" t="s">
         <v>38</v>
       </c>
@@ -9440,7 +9447,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="445" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B445" t="s">
         <v>38</v>
       </c>
@@ -9454,7 +9461,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="446" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B446" t="s">
         <v>38</v>
       </c>
@@ -9468,7 +9475,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="447" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B447" t="s">
         <v>38</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="448" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B448" t="s">
         <v>38</v>
       </c>
@@ -9496,7 +9503,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="449" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
         <v>38</v>
       </c>
@@ -9510,7 +9517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="450" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B450" t="s">
         <v>38</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B451" t="s">
         <v>38</v>
       </c>
@@ -9538,7 +9545,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="452" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B452" t="s">
         <v>38</v>
       </c>
@@ -9552,7 +9559,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="453" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B453" t="s">
         <v>38</v>
       </c>
@@ -9566,7 +9573,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="454" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B454" t="s">
         <v>38</v>
       </c>
@@ -9580,7 +9587,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="455" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B455" t="s">
         <v>38</v>
       </c>
@@ -9594,7 +9601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="456" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
         <v>38</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="457" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B457" t="s">
         <v>38</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>38</v>
       </c>
@@ -9636,7 +9643,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
         <v>38</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B460" t="s">
         <v>38</v>
       </c>
@@ -9664,7 +9671,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
         <v>38</v>
       </c>
@@ -9678,7 +9685,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="462" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
         <v>38</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="463" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B463" t="s">
         <v>22</v>
       </c>
@@ -9706,7 +9713,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="464" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B464" t="s">
         <v>110</v>
       </c>
@@ -9720,7 +9727,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="465" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B465" t="s">
         <v>464</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="466" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
         <v>110</v>
       </c>
@@ -9748,7 +9755,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="467" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B467" t="s">
         <v>38</v>
       </c>
@@ -9762,7 +9769,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B468" t="s">
         <v>38</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="469" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B469" t="s">
         <v>22</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="470" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>22</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="471" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B471" t="s">
         <v>22</v>
       </c>
@@ -9818,7 +9825,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="472" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B472" t="s">
         <v>22</v>
       </c>
@@ -9832,7 +9839,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="473" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B473" t="s">
         <v>38</v>
       </c>
@@ -9846,7 +9853,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="474" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B474" t="s">
         <v>166</v>
       </c>
@@ -9860,7 +9867,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="475" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B475" t="s">
         <v>35</v>
       </c>
@@ -9874,7 +9881,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="476" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B476" t="s">
         <v>22</v>
       </c>
@@ -9888,7 +9895,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="477" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B477" t="s">
         <v>22</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="478" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B478" t="s">
         <v>22</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="479" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B479" t="s">
         <v>38</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="480" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B480" t="s">
         <v>7</v>
       </c>
@@ -9944,7 +9951,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="481" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B481" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +9965,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="482" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B482" t="s">
         <v>9</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="483" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B483" t="s">
         <v>9</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="484" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B484" t="s">
         <v>9</v>
       </c>
@@ -10014,7 +10021,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="486" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B486" t="s">
         <v>5</v>
       </c>
@@ -10042,7 +10049,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="488" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B488" t="s">
         <v>495</v>
       </c>
@@ -10056,7 +10063,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="489" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B489" t="s">
         <v>9</v>
       </c>
@@ -10070,7 +10077,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="490" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B490" t="s">
         <v>27</v>
       </c>
@@ -10084,7 +10091,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="491" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B491" t="s">
         <v>27</v>
       </c>
@@ -10098,7 +10105,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="492" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B492" t="s">
         <v>29</v>
       </c>
@@ -10112,7 +10119,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="493" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B493" t="s">
         <v>27</v>
       </c>
@@ -10126,7 +10133,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="494" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B494" t="s">
         <v>27</v>
       </c>
@@ -10140,7 +10147,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="495" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B495" t="s">
         <v>27</v>
       </c>
@@ -10154,7 +10161,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="496" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B496" t="s">
         <v>27</v>
       </c>
@@ -10168,7 +10175,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="497" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B497" t="s">
         <v>22</v>
       </c>
@@ -10182,7 +10189,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="498" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B498" t="s">
         <v>11</v>
       </c>
@@ -10196,7 +10203,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="499" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B499" t="s">
         <v>11</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="500" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B500" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="501" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B501" t="s">
         <v>9</v>
       </c>
@@ -10238,7 +10245,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="502" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B502" t="s">
         <v>9</v>
       </c>
@@ -10252,7 +10259,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="503" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B503" t="s">
         <v>11</v>
       </c>
@@ -10266,7 +10273,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="504" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B504" t="s">
         <v>11</v>
       </c>
@@ -10280,7 +10287,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="505" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B505" t="s">
         <v>22</v>
       </c>
@@ -10294,7 +10301,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="506" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B506" t="s">
         <v>11</v>
       </c>
@@ -10308,7 +10315,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="507" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B507" t="s">
         <v>22</v>
       </c>
@@ -10322,7 +10329,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="508" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B508" t="s">
         <v>22</v>
       </c>
@@ -10336,7 +10343,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="509" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B509" t="s">
         <v>22</v>
       </c>
@@ -10350,7 +10357,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="510" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B510" t="s">
         <v>9</v>
       </c>
@@ -10364,7 +10371,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="511" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B511" t="s">
         <v>9</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="512" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B512" t="s">
         <v>9</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="513" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B513" t="s">
         <v>9</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="514" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B514" t="s">
         <v>27</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="516" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B516" t="s">
         <v>22</v>
       </c>
@@ -10448,7 +10455,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="517" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B517" t="s">
         <v>22</v>
       </c>
@@ -10462,7 +10469,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="518" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B518" t="s">
         <v>9</v>
       </c>
@@ -10476,7 +10483,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="519" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B519" t="s">
         <v>9</v>
       </c>
@@ -10490,7 +10497,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="520" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B520" t="s">
         <v>35</v>
       </c>
@@ -10504,7 +10511,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="521" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B521" t="s">
         <v>35</v>
       </c>
@@ -10518,7 +10525,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="522" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B522" t="s">
         <v>22</v>
       </c>
@@ -10532,7 +10539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="523" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B523" t="s">
         <v>35</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="524" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B524" t="s">
         <v>22</v>
       </c>
@@ -10560,7 +10567,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B525" t="s">
         <v>22</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="526" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B526" t="s">
         <v>22</v>
       </c>
@@ -10588,7 +10595,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="527" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B527" t="s">
         <v>22</v>
       </c>
@@ -10602,7 +10609,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="528" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B528" t="s">
         <v>11</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="529" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B529" t="s">
         <v>22</v>
       </c>
@@ -10630,7 +10637,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="530" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B530" t="s">
         <v>35</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="531" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B531" t="s">
         <v>38</v>
       </c>
@@ -10658,7 +10665,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="532" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B532" t="s">
         <v>11</v>
       </c>
@@ -10672,7 +10679,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="533" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B533" t="s">
         <v>22</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="534" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B534" t="s">
         <v>22</v>
       </c>
@@ -10700,7 +10707,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="535" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B535" t="s">
         <v>38</v>
       </c>
@@ -10714,7 +10721,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="536" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B536" t="s">
         <v>7</v>
       </c>
@@ -10728,7 +10735,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="537" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B537" t="s">
         <v>9</v>
       </c>
@@ -10742,7 +10749,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="538" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B538" t="s">
         <v>7</v>
       </c>
@@ -10756,7 +10763,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="539" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B539" t="s">
         <v>9</v>
       </c>
@@ -10770,7 +10777,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="540" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B540" t="s">
         <v>9</v>
       </c>
@@ -10784,7 +10791,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="541" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B541" t="s">
         <v>5</v>
       </c>
@@ -10798,7 +10805,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="542" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B542" t="s">
         <v>22</v>
       </c>
@@ -10812,7 +10819,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="543" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B543" t="s">
         <v>29</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="544" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B544" t="s">
         <v>22</v>
       </c>
@@ -10840,7 +10847,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="545" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B545" t="s">
         <v>22</v>
       </c>
@@ -10854,7 +10861,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="546" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B546" t="s">
         <v>29</v>
       </c>
@@ -10868,7 +10875,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="547" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B547" t="s">
         <v>22</v>
       </c>
@@ -10882,7 +10889,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="548" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B548" t="s">
         <v>22</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="549" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B549" t="s">
         <v>22</v>
       </c>
@@ -10910,7 +10917,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="550" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B550" t="s">
         <v>22</v>
       </c>
@@ -10924,7 +10931,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="551" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B551" t="s">
         <v>1</v>
       </c>
@@ -10938,7 +10945,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="552" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B552" t="s">
         <v>5</v>
       </c>
@@ -10952,7 +10959,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="553" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B553" t="s">
         <v>7</v>
       </c>
@@ -10966,7 +10973,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="554" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B554" t="s">
         <v>464</v>
       </c>
@@ -10980,7 +10987,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="555" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B555" t="s">
         <v>464</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="556" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B556" t="s">
         <v>9</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="557" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B557" t="s">
         <v>9</v>
       </c>
@@ -11022,7 +11029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="558" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B558" t="s">
         <v>7</v>
       </c>
@@ -11036,7 +11043,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="559" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B559" t="s">
         <v>38</v>
       </c>
@@ -11050,7 +11057,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="560" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B560" t="s">
         <v>495</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="561" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B561" t="s">
         <v>495</v>
       </c>
@@ -11078,7 +11085,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="562" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B562" t="s">
         <v>495</v>
       </c>
@@ -11092,7 +11099,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="563" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B563" t="s">
         <v>11</v>
       </c>
@@ -11106,7 +11113,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="564" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B564" t="s">
         <v>11</v>
       </c>
@@ -11120,7 +11127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="565" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B565" t="s">
         <v>11</v>
       </c>
@@ -11134,7 +11141,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="566" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B566" t="s">
         <v>38</v>
       </c>
@@ -11148,7 +11155,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="567" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B567" t="s">
         <v>9</v>
       </c>
@@ -11162,7 +11169,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="568" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B568" t="s">
         <v>9</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="569" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B569" t="s">
         <v>9</v>
       </c>
@@ -11190,7 +11197,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="570" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B570" t="s">
         <v>9</v>
       </c>
@@ -11204,7 +11211,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="571" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B571" t="s">
         <v>35</v>
       </c>
@@ -11218,7 +11225,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="572" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B572" t="s">
         <v>35</v>
       </c>
@@ -11232,7 +11239,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="573" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B573" t="s">
         <v>22</v>
       </c>
@@ -11246,7 +11253,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="574" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B574" t="s">
         <v>38</v>
       </c>
@@ -11260,7 +11267,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="575" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B575" t="s">
         <v>22</v>
       </c>
@@ -11274,7 +11281,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="576" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B576" t="s">
         <v>22</v>
       </c>
@@ -11288,7 +11295,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="577" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B577" t="s">
         <v>22</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="578" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B578" t="s">
         <v>209</v>
       </c>
@@ -11316,7 +11323,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="579" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B579" t="s">
         <v>22</v>
       </c>
@@ -11330,7 +11337,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="580" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B580" t="s">
         <v>9</v>
       </c>
@@ -11344,7 +11351,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="581" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B581" t="s">
         <v>38</v>
       </c>
@@ -11358,7 +11365,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="582" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B582" t="s">
         <v>22</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="583" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B583" t="s">
         <v>22</v>
       </c>
@@ -11386,7 +11393,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="584" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B584" t="s">
         <v>9</v>
       </c>
@@ -11400,7 +11407,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="585" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B585" t="s">
         <v>9</v>
       </c>
@@ -11414,7 +11421,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="586" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B586" t="s">
         <v>9</v>
       </c>
@@ -11428,7 +11435,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="587" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B587" t="s">
         <v>38</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="588" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B588" t="s">
         <v>22</v>
       </c>
@@ -11456,7 +11463,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="589" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B589" t="s">
         <v>22</v>
       </c>
@@ -11470,7 +11477,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="590" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B590" t="s">
         <v>22</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="591" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B591" t="s">
         <v>9</v>
       </c>
@@ -11498,7 +11505,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="592" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B592" t="s">
         <v>35</v>
       </c>
@@ -11512,7 +11519,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="593" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B593" t="s">
         <v>1</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="594" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B594" t="s">
         <v>22</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="596" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B596" t="s">
         <v>22</v>
       </c>
@@ -11568,7 +11575,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="597" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B597" t="s">
         <v>22</v>
       </c>
@@ -11582,7 +11589,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="598" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B598" t="s">
         <v>9</v>
       </c>
@@ -11596,7 +11603,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="599" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B599" t="s">
         <v>27</v>
       </c>
@@ -11610,7 +11617,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="600" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B600" t="s">
         <v>1</v>
       </c>
@@ -11624,7 +11631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="601" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B601" t="s">
         <v>1</v>
       </c>
@@ -11638,7 +11645,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="602" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B602" t="s">
         <v>38</v>
       </c>
@@ -11652,7 +11659,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="603" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B603" t="s">
         <v>38</v>
       </c>
@@ -11666,7 +11673,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="604" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B604" t="s">
         <v>9</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="605" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B605" t="s">
         <v>11</v>
       </c>
@@ -11694,7 +11701,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="606" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B606" t="s">
         <v>11</v>
       </c>
@@ -11708,7 +11715,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="607" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B607" t="s">
         <v>35</v>
       </c>
@@ -11722,7 +11729,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="608" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B608" t="s">
         <v>22</v>
       </c>
@@ -11736,7 +11743,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="609" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B609" t="s">
         <v>9</v>
       </c>
@@ -11750,7 +11757,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="610" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B610" t="s">
         <v>9</v>
       </c>
@@ -11764,7 +11771,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="611" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B611" t="s">
         <v>29</v>
       </c>
@@ -11778,7 +11785,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="612" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B612" t="s">
         <v>29</v>
       </c>
@@ -11792,7 +11799,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="613" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B613" t="s">
         <v>29</v>
       </c>
@@ -11806,7 +11813,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="614" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B614" t="s">
         <v>29</v>
       </c>
@@ -11820,7 +11827,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="615" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B615" t="s">
         <v>29</v>
       </c>
@@ -11834,7 +11841,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="616" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B616" t="s">
         <v>22</v>
       </c>
@@ -11848,7 +11855,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="617" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B617" t="s">
         <v>22</v>
       </c>
@@ -11862,7 +11869,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="618" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B618" t="s">
         <v>9</v>
       </c>
@@ -11890,7 +11897,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="620" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B620" t="s">
         <v>9</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="621" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B621" t="s">
         <v>9</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="622" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B622" t="s">
         <v>35</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="623" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B623" t="s">
         <v>22</v>
       </c>
@@ -11946,7 +11953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="624" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B624" t="s">
         <v>3</v>
       </c>
@@ -11960,7 +11967,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="625" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B625" t="s">
         <v>3</v>
       </c>
@@ -11974,7 +11981,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="626" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B626" t="s">
         <v>3</v>
       </c>
@@ -11988,7 +11995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="627" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B627" t="s">
         <v>3</v>
       </c>
@@ -12002,7 +12009,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="628" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B628" t="s">
         <v>3</v>
       </c>
@@ -12016,7 +12023,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="629" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B629" t="s">
         <v>3</v>
       </c>
@@ -12030,7 +12037,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="630" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B630" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12051,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="631" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B631" t="s">
         <v>3</v>
       </c>
@@ -12058,7 +12065,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="632" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B632" t="s">
         <v>3</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="633" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B633" t="s">
         <v>22</v>
       </c>
@@ -12086,7 +12093,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="634" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B634" t="s">
         <v>9</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="635" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B635" t="s">
         <v>464</v>
       </c>
@@ -12114,7 +12121,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="636" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B636" t="s">
         <v>22</v>
       </c>
@@ -12128,7 +12135,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="637" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B637" t="s">
         <v>110</v>
       </c>
@@ -12142,7 +12149,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="638" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B638" t="s">
         <v>11</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="639" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B639" t="s">
         <v>11</v>
       </c>
@@ -12170,7 +12177,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="640" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B640" t="s">
         <v>5</v>
       </c>
@@ -12184,7 +12191,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="641" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B641" t="s">
         <v>27</v>
       </c>
@@ -12198,7 +12205,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="642" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B642" t="s">
         <v>38</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="643" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B643" t="s">
         <v>38</v>
       </c>
@@ -12226,7 +12233,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="644" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B644" t="s">
         <v>38</v>
       </c>
@@ -12240,7 +12247,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="645" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B645" t="s">
         <v>11</v>
       </c>
@@ -12254,7 +12261,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="646" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B646" t="s">
         <v>11</v>
       </c>
@@ -12268,7 +12275,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="647" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B647" t="s">
         <v>11</v>
       </c>
@@ -12282,7 +12289,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="648" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B648" t="s">
         <v>495</v>
       </c>
@@ -12296,7 +12303,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="649" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B649" t="s">
         <v>38</v>
       </c>
@@ -12310,7 +12317,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B650" t="s">
         <v>38</v>
       </c>
@@ -12324,7 +12331,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="651" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B651" t="s">
         <v>38</v>
       </c>
@@ -12338,7 +12345,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="652" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B652" t="s">
         <v>9</v>
       </c>
@@ -12352,7 +12359,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="653" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B653" t="s">
         <v>29</v>
       </c>
@@ -12366,7 +12373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="654" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B654" t="s">
         <v>495</v>
       </c>
@@ -12380,7 +12387,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="655" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B655" t="s">
         <v>495</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="656" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B656" t="s">
         <v>496</v>
       </c>
@@ -12408,7 +12415,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="657" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B657" t="s">
         <v>495</v>
       </c>
@@ -12422,7 +12429,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="658" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B658" t="s">
         <v>38</v>
       </c>
@@ -12436,19 +12443,35 @@
         <v>457</v>
       </c>
     </row>
+    <row r="659" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B659" t="s">
+        <v>38</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+      <c r="D659" t="s">
+        <v>713</v>
+      </c>
+      <c r="E659" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="660" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B660" t="s">
+        <v>22</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660" t="s">
+        <v>714</v>
+      </c>
+      <c r="E660" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E658" xr:uid="{4493AC47-BC72-4381-B845-5F17FA479A42}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter val="*redis*"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="未知"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/字节跳动面试题总结/题目频率分析.xlsx
+++ b/字节跳动面试题总结/题目频率分析.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\doc\blog\字节跳动面试题总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354552C5-355C-4E52-BDE1-AA22A2C03378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5640C7A9-C3AA-4D08-BE70-48B60E4B819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1509" yWindow="1509" windowWidth="16457" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="2" r:id="rId1"/>
     <sheet name="enum" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目!$A$1:$E$658</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">题目!$A$1:$E$660</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B291AD-CFC7-4FD7-8DC5-66899F06C739}">
   <dimension ref="A1:E660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
-      <selection activeCell="E660" sqref="E660"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3326,7 +3326,7 @@
         <v>569</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3368,7 +3368,7 @@
         <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3382,7 +3382,7 @@
         <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3970,7 +3970,7 @@
         <v>683</v>
       </c>
       <c r="E53" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
@@ -4936,7 +4936,7 @@
         <v>287</v>
       </c>
       <c r="E122" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.35">
@@ -6994,7 +6994,7 @@
         <v>60</v>
       </c>
       <c r="E269" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.35">
@@ -7022,7 +7022,7 @@
         <v>194</v>
       </c>
       <c r="E271" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.35">
@@ -7232,7 +7232,7 @@
         <v>422</v>
       </c>
       <c r="E286" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.35">
@@ -12472,6 +12472,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E660" xr:uid="{C1A1067C-D516-4EBC-B9B3-98A66959617F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/字节跳动面试题总结/题目频率分析.xlsx
+++ b/字节跳动面试题总结/题目频率分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\doc\blog\字节跳动面试题总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5640C7A9-C3AA-4D08-BE70-48B60E4B819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F2CC7-6929-4020-BF6C-9A30D952CEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B291AD-CFC7-4FD7-8DC5-66899F06C739}">
   <dimension ref="A1:E660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3396,7 +3396,7 @@
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3410,7 +3410,7 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3438,7 +3438,7 @@
         <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3452,7 +3452,7 @@
         <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3466,7 +3466,7 @@
         <v>599</v>
       </c>
       <c r="E17" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -3480,7 +3480,7 @@
         <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -3494,7 +3494,7 @@
         <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">

--- a/字节跳动面试题总结/题目频率分析.xlsx
+++ b/字节跳动面试题总结/题目频率分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\doc\blog\字节跳动面试题总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F2CC7-6929-4020-BF6C-9A30D952CEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8234FE6-B5AF-4F96-BA34-0F035B7D1860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1294" yWindow="1166" windowWidth="16457" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="2" r:id="rId1"/>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leetcode 146 LRU缓存实现，带ttl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>left join 和right join的区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +278,6 @@
   </si>
   <si>
     <t>最小编辑代价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接雨水问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2889,6 +2881,14 @@
   </si>
   <si>
     <t>TCP报文结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 146 LRU缓存实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode42接雨水问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B291AD-CFC7-4FD7-8DC5-66899F06C739}">
   <dimension ref="A1:E660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3242,7 +3242,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3253,10 +3253,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3270,7 +3270,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3281,10 +3281,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3295,10 +3295,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -3309,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -3323,10 +3323,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3337,10 +3337,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3354,7 +3354,7 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3365,10 +3365,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3379,10 +3379,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3393,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -3407,10 +3407,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -3421,10 +3421,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -3435,10 +3435,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -3449,10 +3449,10 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3463,10 +3463,10 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -3477,10 +3477,10 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -3491,10 +3491,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -3505,10 +3505,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>713</v>
       </c>
       <c r="E20" t="s">
-        <v>457</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -3533,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>714</v>
       </c>
       <c r="E22" t="s">
-        <v>457</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -3547,10 +3547,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
@@ -3561,10 +3561,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -3575,10 +3575,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
@@ -3589,10 +3589,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
@@ -3603,10 +3603,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
@@ -3617,10 +3617,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -3631,10 +3631,10 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
@@ -3645,10 +3645,10 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
@@ -3659,24 +3659,24 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
@@ -3687,10 +3687,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
@@ -3701,10 +3701,10 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
@@ -3715,10 +3715,10 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
@@ -3729,10 +3729,10 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
@@ -3743,10 +3743,10 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
@@ -3757,10 +3757,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
@@ -3774,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
@@ -3785,10 +3785,10 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
@@ -3813,10 +3813,10 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -3830,7 +3830,7 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
@@ -3841,10 +3841,10 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
@@ -3855,10 +3855,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
@@ -3872,7 +3872,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
@@ -3883,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
@@ -3897,10 +3897,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
@@ -3911,10 +3911,10 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
@@ -3925,10 +3925,10 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
@@ -3939,10 +3939,10 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
@@ -3953,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
@@ -3967,10 +3967,10 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
@@ -3981,10 +3981,10 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
@@ -3995,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
@@ -4009,10 +4009,10 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
@@ -4026,7 +4026,7 @@
         <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
@@ -4040,7 +4040,7 @@
         <v>55</v>
       </c>
       <c r="E58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
@@ -4051,10 +4051,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
@@ -4065,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
@@ -4082,7 +4082,7 @@
         <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
@@ -4096,7 +4096,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
@@ -4107,10 +4107,10 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
@@ -4121,24 +4121,24 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
@@ -4149,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
@@ -4163,10 +4163,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
@@ -4177,10 +4177,10 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
@@ -4191,10 +4191,10 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E69" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
@@ -4205,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
@@ -4219,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E71" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
@@ -4233,10 +4233,10 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E72" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
@@ -4247,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
@@ -4261,24 +4261,24 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
@@ -4289,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
@@ -4303,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
@@ -4317,10 +4317,10 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
@@ -4334,7 +4334,7 @@
         <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
@@ -4345,10 +4345,10 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
@@ -4359,10 +4359,10 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
@@ -4373,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
@@ -4387,10 +4387,10 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
@@ -4401,10 +4401,10 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E84" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
@@ -4415,24 +4415,24 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E87" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
@@ -4457,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E88" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
@@ -4471,10 +4471,10 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E89" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
@@ -4485,10 +4485,10 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E90" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
@@ -4499,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
@@ -4513,10 +4513,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
@@ -4527,10 +4527,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
@@ -4541,38 +4541,38 @@
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E94" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
@@ -4597,10 +4597,10 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.35">
@@ -4611,10 +4611,10 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E99" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.35">
@@ -4625,10 +4625,10 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.35">
@@ -4639,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.35">
@@ -4653,10 +4653,10 @@
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.35">
@@ -4667,10 +4667,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E103" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.35">
@@ -4681,10 +4681,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E104" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.35">
@@ -4695,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.35">
@@ -4709,10 +4709,10 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E106" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.35">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.35">
@@ -4737,10 +4737,10 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.35">
@@ -4751,10 +4751,10 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.35">
@@ -4765,10 +4765,10 @@
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.35">
@@ -4779,10 +4779,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.35">
@@ -4793,10 +4793,10 @@
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E112" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.35">
@@ -4810,7 +4810,7 @@
         <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
@@ -4824,7 +4824,7 @@
         <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.35">
@@ -4835,10 +4835,10 @@
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.35">
@@ -4849,10 +4849,10 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.35">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E117" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.35">
@@ -4880,7 +4880,7 @@
         <v>46</v>
       </c>
       <c r="E118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.35">
@@ -4891,10 +4891,10 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E119" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.35">
@@ -4905,10 +4905,10 @@
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E120" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.35">
@@ -4919,10 +4919,10 @@
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E121" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.35">
@@ -4933,10 +4933,10 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.35">
@@ -4947,10 +4947,10 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E123" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.35">
@@ -4961,10 +4961,10 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E124" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.35">
@@ -4975,10 +4975,10 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E125" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.35">
@@ -4989,10 +4989,10 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E126" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.35">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E127" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.35">
@@ -5017,10 +5017,10 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.35">
@@ -5031,10 +5031,10 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.35">
@@ -5045,10 +5045,10 @@
         <v>2</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E130" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.35">
@@ -5059,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.35">
@@ -5073,10 +5073,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E132" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.35">
@@ -5087,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E133" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
@@ -5101,10 +5101,10 @@
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E134" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.35">
@@ -5115,10 +5115,10 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E135" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.35">
@@ -5129,10 +5129,10 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E136" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.35">
@@ -5143,10 +5143,10 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E137" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.35">
@@ -5157,10 +5157,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.35">
@@ -5171,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E139" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.35">
@@ -5185,10 +5185,10 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E140" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.35">
@@ -5199,10 +5199,10 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E141" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="28.3" x14ac:dyDescent="0.35">
@@ -5213,10 +5213,10 @@
         <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E142" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.35">
@@ -5227,10 +5227,10 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E143" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.35">
@@ -5241,10 +5241,10 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E144" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.35">
@@ -5255,10 +5255,10 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E145" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.35">
@@ -5269,10 +5269,10 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E146" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.35">
@@ -5283,10 +5283,10 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E147" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.35">
@@ -5297,10 +5297,10 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E148" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.35">
@@ -5311,10 +5311,10 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E149" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.35">
@@ -5325,10 +5325,10 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E150" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.35">
@@ -5339,10 +5339,10 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E151" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.35">
@@ -5353,10 +5353,10 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E152" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.35">
@@ -5367,10 +5367,10 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E153" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.35">
@@ -5381,10 +5381,10 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E154" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.35">
@@ -5395,10 +5395,10 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E155" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.35">
@@ -5409,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E156" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.35">
@@ -5423,10 +5423,10 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E157" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.35">
@@ -5437,24 +5437,24 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E159" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.35">
@@ -5465,10 +5465,10 @@
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E160" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.35">
@@ -5479,10 +5479,10 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E161" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.35">
@@ -5493,10 +5493,10 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E162" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.35">
@@ -5507,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.35">
@@ -5524,7 +5524,7 @@
         <v>44</v>
       </c>
       <c r="E164" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.35">
@@ -5535,66 +5535,66 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
         <v>209</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>211</v>
-      </c>
       <c r="E166" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
         <v>204</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>206</v>
-      </c>
       <c r="E167" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E168" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E169" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.35">
@@ -5608,7 +5608,7 @@
         <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.35">
@@ -5622,7 +5622,7 @@
         <v>20</v>
       </c>
       <c r="E171" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.35">
@@ -5636,7 +5636,7 @@
         <v>50</v>
       </c>
       <c r="E172" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.35">
@@ -5650,7 +5650,7 @@
         <v>52</v>
       </c>
       <c r="E173" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.35">
@@ -5661,10 +5661,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E174" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.35">
@@ -5675,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E175" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.35">
@@ -5689,10 +5689,10 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.35">
@@ -5703,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.35">
@@ -5717,10 +5717,10 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.35">
@@ -5731,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.35">
@@ -5745,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.35">
@@ -5759,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.35">
@@ -5773,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E182" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.35">
@@ -5787,10 +5787,10 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.35">
@@ -5801,10 +5801,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E184" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.35">
@@ -5815,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E185" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.35">
@@ -5829,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E186" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.35">
@@ -5843,10 +5843,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E187" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.35">
@@ -5857,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E188" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.35">
@@ -5871,10 +5871,10 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E189" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.35">
@@ -5885,10 +5885,10 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E190" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.35">
@@ -5899,10 +5899,10 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E191" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.35">
@@ -5913,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E192" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.35">
@@ -5927,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E193" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.35">
@@ -5941,10 +5941,10 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E194" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.35">
@@ -5955,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E195" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.35">
@@ -5969,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E196" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.35">
@@ -5983,10 +5983,10 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E197" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.35">
@@ -5997,10 +5997,10 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E198" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.35">
@@ -6011,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E199" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.35">
@@ -6025,10 +6025,10 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E200" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.35">
@@ -6039,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E201" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.35">
@@ -6053,10 +6053,10 @@
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E202" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.35">
@@ -6067,10 +6067,10 @@
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.35">
@@ -6081,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E204" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.35">
@@ -6095,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E205" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.35">
@@ -6109,10 +6109,10 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E206" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.35">
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E207" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.35">
@@ -6137,10 +6137,10 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E208" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.35">
@@ -6151,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.35">
@@ -6165,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E210" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.35">
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E211" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.35">
@@ -6193,10 +6193,10 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E212" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.35">
@@ -6207,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E213" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.35">
@@ -6221,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E214" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.35">
@@ -6235,10 +6235,10 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E215" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.35">
@@ -6249,10 +6249,10 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E216" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.35">
@@ -6263,10 +6263,10 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E217" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.35">
@@ -6280,7 +6280,7 @@
         <v>45</v>
       </c>
       <c r="E218" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.35">
@@ -6291,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E219" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.35">
@@ -6305,10 +6305,10 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E220" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.35">
@@ -6319,10 +6319,10 @@
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E221" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.35">
@@ -6333,10 +6333,10 @@
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E222" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.35">
@@ -6347,10 +6347,10 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E223" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.35">
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E224" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.35">
@@ -6375,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E225" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.35">
@@ -6389,10 +6389,10 @@
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E226" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.35">
@@ -6403,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E227" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.35">
@@ -6417,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E228" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.35">
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.35">
@@ -6445,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.35">
@@ -6459,10 +6459,10 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.35">
@@ -6473,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.35">
@@ -6487,24 +6487,24 @@
         <v>1</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.35">
@@ -6518,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="E235" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.35">
@@ -6529,10 +6529,10 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.35">
@@ -6543,10 +6543,10 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.35">
@@ -6557,10 +6557,10 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E238" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.35">
@@ -6571,10 +6571,10 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E239" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.35">
@@ -6585,10 +6585,10 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.35">
@@ -6599,10 +6599,10 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E241" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.35">
@@ -6613,10 +6613,10 @@
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E242" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.35">
@@ -6627,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.35">
@@ -6641,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.35">
@@ -6655,10 +6655,10 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.35">
@@ -6669,10 +6669,10 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.35">
@@ -6683,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.35">
@@ -6697,10 +6697,10 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.35">
@@ -6711,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.35">
@@ -6725,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E250" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.35">
@@ -6739,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E251" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.35">
@@ -6753,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E252" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.35">
@@ -6767,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E253" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.35">
@@ -6781,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E254" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.35">
@@ -6795,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E255" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.35">
@@ -6809,10 +6809,10 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E256" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.35">
@@ -6823,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E257" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.35">
@@ -6837,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E258" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.35">
@@ -6851,10 +6851,10 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E259" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.35">
@@ -6865,10 +6865,10 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E260" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.35">
@@ -6879,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E261" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.35">
@@ -6893,94 +6893,94 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E262" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E263" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E264" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
+        <v>164</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
         <v>166</v>
       </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265" t="s">
-        <v>168</v>
-      </c>
       <c r="E265" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E266" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E267" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E268" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.35">
@@ -6991,10 +6991,10 @@
         <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E269" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.35">
@@ -7005,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E270" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.35">
@@ -7019,10 +7019,10 @@
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E271" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.35">
@@ -7033,10 +7033,10 @@
         <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E272" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.35">
@@ -7047,10 +7047,10 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E273" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.35">
@@ -7061,10 +7061,10 @@
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E274" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.35">
@@ -7075,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E275" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.35">
@@ -7089,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E276" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.35">
@@ -7103,10 +7103,10 @@
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E277" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.35">
@@ -7117,10 +7117,10 @@
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E278" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.35">
@@ -7131,10 +7131,10 @@
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E279" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.35">
@@ -7145,10 +7145,10 @@
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E280" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.35">
@@ -7159,10 +7159,10 @@
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E281" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.35">
@@ -7173,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E282" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.35">
@@ -7187,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E283" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.35">
@@ -7201,10 +7201,10 @@
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E284" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.35">
@@ -7215,10 +7215,10 @@
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E285" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.35">
@@ -7229,10 +7229,10 @@
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E286" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.35">
@@ -7243,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E287" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.35">
@@ -7257,10 +7257,10 @@
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E288" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.35">
@@ -7271,10 +7271,10 @@
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E289" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.35">
@@ -7285,10 +7285,10 @@
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E290" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.35">
@@ -7302,7 +7302,7 @@
         <v>25</v>
       </c>
       <c r="E291" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.35">
@@ -7313,10 +7313,10 @@
         <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E292" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.35">
@@ -7327,10 +7327,10 @@
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E293" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.35">
@@ -7341,10 +7341,10 @@
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E294" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.35">
@@ -7355,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E295" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.35">
@@ -7369,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E296" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.35">
@@ -7383,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E297" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.35">
@@ -7397,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E298" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="2:5" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -7411,10 +7411,10 @@
         <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E299" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="300" spans="2:5" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7425,10 +7425,10 @@
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E300" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.35">
@@ -7439,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="D301" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E301" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.35">
@@ -7453,10 +7453,10 @@
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E302" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.35">
@@ -7467,10 +7467,10 @@
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E303" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.35">
@@ -7481,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E304" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.35">
@@ -7495,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E305" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.35">
@@ -7509,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E306" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.35">
@@ -7523,10 +7523,10 @@
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E307" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.35">
@@ -7537,10 +7537,10 @@
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E308" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.35">
@@ -7551,10 +7551,10 @@
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.35">
@@ -7565,10 +7565,10 @@
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E310" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.35">
@@ -7579,10 +7579,10 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E311" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.35">
@@ -7593,10 +7593,10 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E312" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.35">
@@ -7607,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E313" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.35">
@@ -7621,10 +7621,10 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E314" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.35">
@@ -7635,10 +7635,10 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E315" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.35">
@@ -7649,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E316" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.35">
@@ -7663,10 +7663,10 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E317" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.35">
@@ -7677,10 +7677,10 @@
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E318" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.35">
@@ -7691,10 +7691,10 @@
         <v>1</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E319" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.35">
@@ -7705,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E320" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.35">
@@ -7719,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E321" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.35">
@@ -7733,10 +7733,10 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E322" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.35">
@@ -7747,10 +7747,10 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E323" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.35">
@@ -7761,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E324" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.35">
@@ -7775,10 +7775,10 @@
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E325" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.35">
@@ -7792,7 +7792,7 @@
         <v>40</v>
       </c>
       <c r="E326" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.35">
@@ -7806,7 +7806,7 @@
         <v>41</v>
       </c>
       <c r="E327" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.35">
@@ -7817,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E328" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.35">
@@ -7831,10 +7831,10 @@
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E329" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="330" spans="2:5" ht="56.6" x14ac:dyDescent="0.35">
@@ -7845,10 +7845,10 @@
         <v>1</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E330" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.35">
@@ -7859,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E331" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.35">
@@ -7873,10 +7873,10 @@
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E332" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.35">
@@ -7887,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E333" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.35">
@@ -7901,10 +7901,10 @@
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E334" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.35">
@@ -7915,10 +7915,10 @@
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E335" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.35">
@@ -7929,10 +7929,10 @@
         <v>1</v>
       </c>
       <c r="D336" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E336" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.35">
@@ -7943,10 +7943,10 @@
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E337" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.35">
@@ -7957,10 +7957,10 @@
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E338" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.35">
@@ -7971,10 +7971,10 @@
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E339" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.35">
@@ -7985,10 +7985,10 @@
         <v>1</v>
       </c>
       <c r="D340" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E340" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.35">
@@ -7999,10 +7999,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E341" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.35">
@@ -8013,10 +8013,10 @@
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E342" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.35">
@@ -8027,10 +8027,10 @@
         <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E343" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.35">
@@ -8041,122 +8041,122 @@
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E344" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E345" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E346" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E347" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C348">
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E348" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E349" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E350" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E351" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C352">
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E352" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.35">
@@ -8170,7 +8170,7 @@
         <v>34</v>
       </c>
       <c r="E353" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.35">
@@ -8184,7 +8184,7 @@
         <v>49</v>
       </c>
       <c r="E354" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.35">
@@ -8198,7 +8198,7 @@
         <v>56</v>
       </c>
       <c r="E355" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.35">
@@ -8212,7 +8212,7 @@
         <v>57</v>
       </c>
       <c r="E356" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.35">
@@ -8223,10 +8223,10 @@
         <v>1</v>
       </c>
       <c r="D357" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E357" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.35">
@@ -8237,10 +8237,10 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E358" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.35">
@@ -8251,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="D359" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E359" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.35">
@@ -8265,10 +8265,10 @@
         <v>1</v>
       </c>
       <c r="D360" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E360" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="361" spans="2:5" ht="70.75" x14ac:dyDescent="0.35">
@@ -8279,10 +8279,10 @@
         <v>1</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E361" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.35">
@@ -8293,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="D362" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E362" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.35">
@@ -8307,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="D363" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.35">
@@ -8321,10 +8321,10 @@
         <v>1</v>
       </c>
       <c r="D364" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E364" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.35">
@@ -8335,10 +8335,10 @@
         <v>1</v>
       </c>
       <c r="D365" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E365" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.35">
@@ -8349,10 +8349,10 @@
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E366" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.35">
@@ -8363,10 +8363,10 @@
         <v>1</v>
       </c>
       <c r="D367" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E367" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.35">
@@ -8377,10 +8377,10 @@
         <v>1</v>
       </c>
       <c r="D368" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E368" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.35">
@@ -8391,10 +8391,10 @@
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E369" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="370" spans="2:5" ht="226.3" x14ac:dyDescent="0.35">
@@ -8405,10 +8405,10 @@
         <v>1</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E370" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.35">
@@ -8419,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E371" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.35">
@@ -8433,10 +8433,10 @@
         <v>1</v>
       </c>
       <c r="D372" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E372" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.35">
@@ -8447,10 +8447,10 @@
         <v>1</v>
       </c>
       <c r="D373" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E373" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.35">
@@ -8461,10 +8461,10 @@
         <v>1</v>
       </c>
       <c r="D374" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E374" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.35">
@@ -8475,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="D375" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E375" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.35">
@@ -8489,10 +8489,10 @@
         <v>1</v>
       </c>
       <c r="D376" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E376" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.35">
@@ -8503,10 +8503,10 @@
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E377" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.35">
@@ -8517,10 +8517,10 @@
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E378" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.35">
@@ -8531,10 +8531,10 @@
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E379" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.35">
@@ -8545,10 +8545,10 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E380" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.35">
@@ -8559,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E381" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.35">
@@ -8573,10 +8573,10 @@
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E382" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.35">
@@ -8587,10 +8587,10 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E383" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="384" spans="2:5" ht="56.6" x14ac:dyDescent="0.35">
@@ -8601,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E384" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.35">
@@ -8615,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E385" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.35">
@@ -8629,10 +8629,10 @@
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E386" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="387" spans="2:5" ht="409.6" x14ac:dyDescent="0.35">
@@ -8643,10 +8643,10 @@
         <v>1</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E387" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.35">
@@ -8657,10 +8657,10 @@
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E388" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.35">
@@ -8671,10 +8671,10 @@
         <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E389" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.35">
@@ -8685,10 +8685,10 @@
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E390" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.35">
@@ -8699,10 +8699,10 @@
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E391" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.35">
@@ -8713,10 +8713,10 @@
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E392" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.35">
@@ -8727,10 +8727,10 @@
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E393" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.35">
@@ -8741,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E394" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.35">
@@ -8755,10 +8755,10 @@
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E395" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.35">
@@ -8769,10 +8769,10 @@
         <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E396" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="397" spans="2:5" ht="70.75" x14ac:dyDescent="0.35">
@@ -8783,10 +8783,10 @@
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E397" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.35">
@@ -8797,10 +8797,10 @@
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E398" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.35">
@@ -8811,10 +8811,10 @@
         <v>1</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E399" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.35">
@@ -8825,10 +8825,10 @@
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E400" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.35">
@@ -8839,10 +8839,10 @@
         <v>1</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E401" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.35">
@@ -8853,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E402" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.35">
@@ -8867,10 +8867,10 @@
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E403" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.35">
@@ -8881,10 +8881,10 @@
         <v>1</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E404" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.35">
@@ -8895,10 +8895,10 @@
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E405" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.35">
@@ -8909,10 +8909,10 @@
         <v>1</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E406" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.35">
@@ -8923,10 +8923,10 @@
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E407" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.35">
@@ -8937,10 +8937,10 @@
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E408" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="409" spans="2:5" ht="84.9" x14ac:dyDescent="0.35">
@@ -8951,10 +8951,10 @@
         <v>1</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E409" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.35">
@@ -8965,10 +8965,10 @@
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E410" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.35">
@@ -8979,10 +8979,10 @@
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E411" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.35">
@@ -8993,10 +8993,10 @@
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E412" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.35">
@@ -9007,10 +9007,10 @@
         <v>1</v>
       </c>
       <c r="D413" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E413" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.35">
@@ -9021,10 +9021,10 @@
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E414" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.35">
@@ -9035,10 +9035,10 @@
         <v>1</v>
       </c>
       <c r="D415" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E415" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.35">
@@ -9049,10 +9049,10 @@
         <v>1</v>
       </c>
       <c r="D416" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E416" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.35">
@@ -9063,10 +9063,10 @@
         <v>1</v>
       </c>
       <c r="D417" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E417" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.35">
@@ -9077,10 +9077,10 @@
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E418" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.35">
@@ -9091,10 +9091,10 @@
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E419" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.35">
@@ -9105,10 +9105,10 @@
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E420" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.35">
@@ -9119,10 +9119,10 @@
         <v>1</v>
       </c>
       <c r="D421" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E421" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.35">
@@ -9133,10 +9133,10 @@
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E422" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.35">
@@ -9147,10 +9147,10 @@
         <v>1</v>
       </c>
       <c r="D423" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E423" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.35">
@@ -9161,10 +9161,10 @@
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E424" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.35">
@@ -9175,10 +9175,10 @@
         <v>1</v>
       </c>
       <c r="D425" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E425" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.35">
@@ -9189,10 +9189,10 @@
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E426" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.35">
@@ -9203,10 +9203,10 @@
         <v>1</v>
       </c>
       <c r="D427" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E427" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.35">
@@ -9217,10 +9217,10 @@
         <v>1</v>
       </c>
       <c r="D428" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E428" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.35">
@@ -9231,10 +9231,10 @@
         <v>1</v>
       </c>
       <c r="D429" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E429" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.35">
@@ -9245,10 +9245,10 @@
         <v>1</v>
       </c>
       <c r="D430" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E430" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.35">
@@ -9259,10 +9259,10 @@
         <v>1</v>
       </c>
       <c r="D431" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E431" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.35">
@@ -9273,10 +9273,10 @@
         <v>1</v>
       </c>
       <c r="D432" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E432" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.35">
@@ -9287,10 +9287,10 @@
         <v>1</v>
       </c>
       <c r="D433" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E433" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.35">
@@ -9301,10 +9301,10 @@
         <v>1</v>
       </c>
       <c r="D434" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E434" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.35">
@@ -9315,10 +9315,10 @@
         <v>1</v>
       </c>
       <c r="D435" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E435" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.35">
@@ -9329,10 +9329,10 @@
         <v>1</v>
       </c>
       <c r="D436" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E436" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.35">
@@ -9343,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E437" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.35">
@@ -9357,10 +9357,10 @@
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E438" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.35">
@@ -9371,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E439" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.35">
@@ -9385,10 +9385,10 @@
         <v>1</v>
       </c>
       <c r="D440" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E440" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.35">
@@ -9399,10 +9399,10 @@
         <v>1</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E441" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.35">
@@ -9413,10 +9413,10 @@
         <v>1</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E442" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.35">
@@ -9427,10 +9427,10 @@
         <v>1</v>
       </c>
       <c r="D443" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E443" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.35">
@@ -9441,10 +9441,10 @@
         <v>1</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E444" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.35">
@@ -9455,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="D445" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E445" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.35">
@@ -9469,10 +9469,10 @@
         <v>1</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E446" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.35">
@@ -9483,10 +9483,10 @@
         <v>1</v>
       </c>
       <c r="D447" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E447" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.35">
@@ -9497,10 +9497,10 @@
         <v>1</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E448" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.35">
@@ -9511,10 +9511,10 @@
         <v>1</v>
       </c>
       <c r="D449" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E449" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.35">
@@ -9525,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="D450" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E450" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.35">
@@ -9539,10 +9539,10 @@
         <v>1</v>
       </c>
       <c r="D451" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E451" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.35">
@@ -9553,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="D452" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E452" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.35">
@@ -9567,10 +9567,10 @@
         <v>1</v>
       </c>
       <c r="D453" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E453" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.35">
@@ -9581,10 +9581,10 @@
         <v>1</v>
       </c>
       <c r="D454" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E454" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.35">
@@ -9595,10 +9595,10 @@
         <v>1</v>
       </c>
       <c r="D455" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E455" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.35">
@@ -9609,10 +9609,10 @@
         <v>1</v>
       </c>
       <c r="D456" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E456" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.35">
@@ -9623,10 +9623,10 @@
         <v>1</v>
       </c>
       <c r="D457" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E457" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.35">
@@ -9637,10 +9637,10 @@
         <v>1</v>
       </c>
       <c r="D458" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E458" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.35">
@@ -9651,10 +9651,10 @@
         <v>1</v>
       </c>
       <c r="D459" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E459" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.35">
@@ -9665,10 +9665,10 @@
         <v>1</v>
       </c>
       <c r="D460" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E460" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.35">
@@ -9679,10 +9679,10 @@
         <v>1</v>
       </c>
       <c r="D461" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E461" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.35">
@@ -9693,10 +9693,10 @@
         <v>1</v>
       </c>
       <c r="D462" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E462" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.35">
@@ -9707,52 +9707,52 @@
         <v>1</v>
       </c>
       <c r="D463" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E463" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B464" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C464">
         <v>1</v>
       </c>
       <c r="D464" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E464" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B465" t="s">
+        <v>462</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
         <v>464</v>
       </c>
-      <c r="C465">
-        <v>1</v>
-      </c>
-      <c r="D465" t="s">
-        <v>466</v>
-      </c>
       <c r="E465" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B466" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C466">
         <v>1</v>
       </c>
       <c r="D466" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.35">
@@ -9763,10 +9763,10 @@
         <v>1</v>
       </c>
       <c r="D467" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.35">
@@ -9777,10 +9777,10 @@
         <v>1</v>
       </c>
       <c r="D468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.35">
@@ -9791,10 +9791,10 @@
         <v>1</v>
       </c>
       <c r="D469" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.35">
@@ -9805,10 +9805,10 @@
         <v>1</v>
       </c>
       <c r="D470" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.35">
@@ -9819,10 +9819,10 @@
         <v>1</v>
       </c>
       <c r="D471" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.35">
@@ -9833,10 +9833,10 @@
         <v>1</v>
       </c>
       <c r="D472" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.35">
@@ -9847,24 +9847,24 @@
         <v>1</v>
       </c>
       <c r="D473" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B474" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C474">
         <v>1</v>
       </c>
       <c r="D474" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.35">
@@ -9875,10 +9875,10 @@
         <v>1</v>
       </c>
       <c r="D475" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E475" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.35">
@@ -9889,10 +9889,10 @@
         <v>1</v>
       </c>
       <c r="D476" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E476" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.35">
@@ -9903,10 +9903,10 @@
         <v>1</v>
       </c>
       <c r="D477" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E477" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.35">
@@ -9917,10 +9917,10 @@
         <v>1</v>
       </c>
       <c r="D478" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E478" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.35">
@@ -9931,10 +9931,10 @@
         <v>1</v>
       </c>
       <c r="D479" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E479" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.35">
@@ -9945,10 +9945,10 @@
         <v>1</v>
       </c>
       <c r="D480" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E480" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.35">
@@ -9959,10 +9959,10 @@
         <v>1</v>
       </c>
       <c r="D481" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E481" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.35">
@@ -9973,10 +9973,10 @@
         <v>1</v>
       </c>
       <c r="D482" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E482" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.35">
@@ -9987,10 +9987,10 @@
         <v>1</v>
       </c>
       <c r="D483" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.35">
@@ -10001,10 +10001,10 @@
         <v>1</v>
       </c>
       <c r="D484" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E484" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.35">
@@ -10015,10 +10015,10 @@
         <v>1</v>
       </c>
       <c r="D485" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.35">
@@ -10029,10 +10029,10 @@
         <v>1</v>
       </c>
       <c r="D486" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E486" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.35">
@@ -10043,24 +10043,24 @@
         <v>1</v>
       </c>
       <c r="D487" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E487" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B488" t="s">
+        <v>493</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
         <v>495</v>
       </c>
-      <c r="C488">
-        <v>1</v>
-      </c>
-      <c r="D488" t="s">
-        <v>497</v>
-      </c>
       <c r="E488" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.35">
@@ -10071,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="D489" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E489" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.35">
@@ -10085,10 +10085,10 @@
         <v>1</v>
       </c>
       <c r="D490" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E490" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.35">
@@ -10099,10 +10099,10 @@
         <v>1</v>
       </c>
       <c r="D491" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E491" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.35">
@@ -10113,10 +10113,10 @@
         <v>1</v>
       </c>
       <c r="D492" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E492" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.35">
@@ -10127,10 +10127,10 @@
         <v>1</v>
       </c>
       <c r="D493" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E493" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.35">
@@ -10141,10 +10141,10 @@
         <v>1</v>
       </c>
       <c r="D494" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E494" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.35">
@@ -10155,10 +10155,10 @@
         <v>1</v>
       </c>
       <c r="D495" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E495" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.35">
@@ -10169,10 +10169,10 @@
         <v>1</v>
       </c>
       <c r="D496" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E496" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.35">
@@ -10183,10 +10183,10 @@
         <v>1</v>
       </c>
       <c r="D497" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E497" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.35">
@@ -10197,10 +10197,10 @@
         <v>1</v>
       </c>
       <c r="D498" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E498" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.35">
@@ -10211,10 +10211,10 @@
         <v>1</v>
       </c>
       <c r="D499" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E499" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.35">
@@ -10225,10 +10225,10 @@
         <v>1</v>
       </c>
       <c r="D500" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E500" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.35">
@@ -10239,10 +10239,10 @@
         <v>1</v>
       </c>
       <c r="D501" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E501" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.35">
@@ -10253,10 +10253,10 @@
         <v>1</v>
       </c>
       <c r="D502" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E502" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.35">
@@ -10267,10 +10267,10 @@
         <v>1</v>
       </c>
       <c r="D503" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E503" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.35">
@@ -10281,10 +10281,10 @@
         <v>1</v>
       </c>
       <c r="D504" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E504" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.35">
@@ -10295,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E505" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.35">
@@ -10309,10 +10309,10 @@
         <v>1</v>
       </c>
       <c r="D506" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E506" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.35">
@@ -10323,10 +10323,10 @@
         <v>1</v>
       </c>
       <c r="D507" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E507" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="508" spans="2:5" x14ac:dyDescent="0.35">
@@ -10337,10 +10337,10 @@
         <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E508" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.35">
@@ -10351,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="D509" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E509" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="510" spans="2:5" x14ac:dyDescent="0.35">
@@ -10365,10 +10365,10 @@
         <v>1</v>
       </c>
       <c r="D510" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E510" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="511" spans="2:5" x14ac:dyDescent="0.35">
@@ -10379,10 +10379,10 @@
         <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E511" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.35">
@@ -10393,10 +10393,10 @@
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E512" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.35">
@@ -10407,10 +10407,10 @@
         <v>1</v>
       </c>
       <c r="D513" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E513" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.35">
@@ -10421,10 +10421,10 @@
         <v>1</v>
       </c>
       <c r="D514" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E514" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.35">
@@ -10435,10 +10435,10 @@
         <v>1</v>
       </c>
       <c r="D515" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E515" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.35">
@@ -10449,10 +10449,10 @@
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E516" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.35">
@@ -10463,10 +10463,10 @@
         <v>1</v>
       </c>
       <c r="D517" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E517" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.35">
@@ -10477,10 +10477,10 @@
         <v>1</v>
       </c>
       <c r="D518" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E518" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.35">
@@ -10491,10 +10491,10 @@
         <v>1</v>
       </c>
       <c r="D519" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E519" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.35">
@@ -10505,10 +10505,10 @@
         <v>1</v>
       </c>
       <c r="D520" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E520" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.35">
@@ -10519,10 +10519,10 @@
         <v>1</v>
       </c>
       <c r="D521" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E521" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.35">
@@ -10533,10 +10533,10 @@
         <v>1</v>
       </c>
       <c r="D522" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E522" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="523" spans="2:5" x14ac:dyDescent="0.35">
@@ -10547,10 +10547,10 @@
         <v>1</v>
       </c>
       <c r="D523" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E523" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.35">
@@ -10561,10 +10561,10 @@
         <v>1</v>
       </c>
       <c r="D524" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E524" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="525" spans="2:5" x14ac:dyDescent="0.35">
@@ -10575,10 +10575,10 @@
         <v>1</v>
       </c>
       <c r="D525" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E525" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="526" spans="2:5" x14ac:dyDescent="0.35">
@@ -10589,10 +10589,10 @@
         <v>1</v>
       </c>
       <c r="D526" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E526" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="527" spans="2:5" x14ac:dyDescent="0.35">
@@ -10603,10 +10603,10 @@
         <v>1</v>
       </c>
       <c r="D527" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E527" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="528" spans="2:5" x14ac:dyDescent="0.35">
@@ -10617,10 +10617,10 @@
         <v>1</v>
       </c>
       <c r="D528" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E528" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="529" spans="2:5" x14ac:dyDescent="0.35">
@@ -10631,10 +10631,10 @@
         <v>1</v>
       </c>
       <c r="D529" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E529" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="530" spans="2:5" x14ac:dyDescent="0.35">
@@ -10645,10 +10645,10 @@
         <v>1</v>
       </c>
       <c r="D530" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E530" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="531" spans="2:5" x14ac:dyDescent="0.35">
@@ -10659,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="D531" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E531" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="532" spans="2:5" x14ac:dyDescent="0.35">
@@ -10673,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="D532" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E532" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="533" spans="2:5" x14ac:dyDescent="0.35">
@@ -10687,10 +10687,10 @@
         <v>1</v>
       </c>
       <c r="D533" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E533" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="534" spans="2:5" x14ac:dyDescent="0.35">
@@ -10701,10 +10701,10 @@
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E534" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.35">
@@ -10715,10 +10715,10 @@
         <v>1</v>
       </c>
       <c r="D535" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E535" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.35">
@@ -10729,10 +10729,10 @@
         <v>1</v>
       </c>
       <c r="D536" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E536" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.35">
@@ -10743,10 +10743,10 @@
         <v>1</v>
       </c>
       <c r="D537" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E537" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="538" spans="2:5" x14ac:dyDescent="0.35">
@@ -10757,10 +10757,10 @@
         <v>1</v>
       </c>
       <c r="D538" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E538" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.35">
@@ -10771,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="D539" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E539" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.35">
@@ -10785,10 +10785,10 @@
         <v>1</v>
       </c>
       <c r="D540" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E540" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="541" spans="2:5" x14ac:dyDescent="0.35">
@@ -10799,10 +10799,10 @@
         <v>1</v>
       </c>
       <c r="D541" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E541" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="542" spans="2:5" x14ac:dyDescent="0.35">
@@ -10813,10 +10813,10 @@
         <v>1</v>
       </c>
       <c r="D542" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E542" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="543" spans="2:5" x14ac:dyDescent="0.35">
@@ -10827,10 +10827,10 @@
         <v>1</v>
       </c>
       <c r="D543" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E543" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="544" spans="2:5" x14ac:dyDescent="0.35">
@@ -10841,10 +10841,10 @@
         <v>1</v>
       </c>
       <c r="D544" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E544" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="545" spans="2:5" x14ac:dyDescent="0.35">
@@ -10855,10 +10855,10 @@
         <v>1</v>
       </c>
       <c r="D545" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E545" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="546" spans="2:5" x14ac:dyDescent="0.35">
@@ -10869,10 +10869,10 @@
         <v>1</v>
       </c>
       <c r="D546" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E546" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="547" spans="2:5" x14ac:dyDescent="0.35">
@@ -10883,10 +10883,10 @@
         <v>1</v>
       </c>
       <c r="D547" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E547" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="548" spans="2:5" x14ac:dyDescent="0.35">
@@ -10897,10 +10897,10 @@
         <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E548" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="549" spans="2:5" x14ac:dyDescent="0.35">
@@ -10911,10 +10911,10 @@
         <v>1</v>
       </c>
       <c r="D549" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E549" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="550" spans="2:5" x14ac:dyDescent="0.35">
@@ -10925,10 +10925,10 @@
         <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E550" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.35">
@@ -10939,10 +10939,10 @@
         <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E551" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.35">
@@ -10953,10 +10953,10 @@
         <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E552" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.35">
@@ -10967,38 +10967,38 @@
         <v>1</v>
       </c>
       <c r="D553" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E553" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="554" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B554" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C554">
         <v>1</v>
       </c>
       <c r="D554" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E554" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B555" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C555">
         <v>1</v>
       </c>
       <c r="D555" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E555" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="556" spans="2:5" x14ac:dyDescent="0.35">
@@ -11009,10 +11009,10 @@
         <v>1</v>
       </c>
       <c r="D556" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E556" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="557" spans="2:5" x14ac:dyDescent="0.35">
@@ -11023,10 +11023,10 @@
         <v>1</v>
       </c>
       <c r="D557" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E557" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="558" spans="2:5" x14ac:dyDescent="0.35">
@@ -11037,10 +11037,10 @@
         <v>1</v>
       </c>
       <c r="D558" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E558" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="559" spans="2:5" x14ac:dyDescent="0.35">
@@ -11051,52 +11051,52 @@
         <v>1</v>
       </c>
       <c r="D559" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E559" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="560" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B560" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C560">
         <v>1</v>
       </c>
       <c r="D560" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E560" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="561" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B561" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C561">
         <v>1</v>
       </c>
       <c r="D561" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E561" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="562" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B562" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C562">
         <v>1</v>
       </c>
       <c r="D562" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E562" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="563" spans="2:5" x14ac:dyDescent="0.35">
@@ -11107,10 +11107,10 @@
         <v>1</v>
       </c>
       <c r="D563" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E563" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="564" spans="2:5" x14ac:dyDescent="0.35">
@@ -11121,10 +11121,10 @@
         <v>1</v>
       </c>
       <c r="D564" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E564" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="565" spans="2:5" x14ac:dyDescent="0.35">
@@ -11135,10 +11135,10 @@
         <v>1</v>
       </c>
       <c r="D565" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E565" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.35">
@@ -11149,10 +11149,10 @@
         <v>1</v>
       </c>
       <c r="D566" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.35">
@@ -11163,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E567" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="568" spans="2:5" x14ac:dyDescent="0.35">
@@ -11177,10 +11177,10 @@
         <v>1</v>
       </c>
       <c r="D568" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E568" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.35">
@@ -11191,10 +11191,10 @@
         <v>1</v>
       </c>
       <c r="D569" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E569" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.35">
@@ -11205,10 +11205,10 @@
         <v>1</v>
       </c>
       <c r="D570" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E570" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="571" spans="2:5" x14ac:dyDescent="0.35">
@@ -11219,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="D571" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E571" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="572" spans="2:5" x14ac:dyDescent="0.35">
@@ -11233,10 +11233,10 @@
         <v>1</v>
       </c>
       <c r="D572" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E572" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="573" spans="2:5" x14ac:dyDescent="0.35">
@@ -11247,10 +11247,10 @@
         <v>1</v>
       </c>
       <c r="D573" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E573" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="574" spans="2:5" x14ac:dyDescent="0.35">
@@ -11261,10 +11261,10 @@
         <v>1</v>
       </c>
       <c r="D574" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E574" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="575" spans="2:5" x14ac:dyDescent="0.35">
@@ -11275,10 +11275,10 @@
         <v>1</v>
       </c>
       <c r="D575" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E575" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="576" spans="2:5" x14ac:dyDescent="0.35">
@@ -11289,10 +11289,10 @@
         <v>1</v>
       </c>
       <c r="D576" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E576" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.35">
@@ -11303,24 +11303,24 @@
         <v>1</v>
       </c>
       <c r="D577" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E577" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B578" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C578">
         <v>1</v>
       </c>
       <c r="D578" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E578" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.35">
@@ -11331,10 +11331,10 @@
         <v>1</v>
       </c>
       <c r="D579" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E579" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.35">
@@ -11345,10 +11345,10 @@
         <v>1</v>
       </c>
       <c r="D580" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E580" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.35">
@@ -11359,10 +11359,10 @@
         <v>1</v>
       </c>
       <c r="D581" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E581" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="582" spans="2:5" x14ac:dyDescent="0.35">
@@ -11373,10 +11373,10 @@
         <v>1</v>
       </c>
       <c r="D582" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E582" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.35">
@@ -11387,10 +11387,10 @@
         <v>1</v>
       </c>
       <c r="D583" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E583" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.35">
@@ -11401,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="D584" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E584" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.35">
@@ -11415,10 +11415,10 @@
         <v>1</v>
       </c>
       <c r="D585" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E585" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.35">
@@ -11429,10 +11429,10 @@
         <v>1</v>
       </c>
       <c r="D586" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E586" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.35">
@@ -11443,10 +11443,10 @@
         <v>1</v>
       </c>
       <c r="D587" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E587" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.35">
@@ -11457,10 +11457,10 @@
         <v>1</v>
       </c>
       <c r="D588" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E588" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="589" spans="2:5" x14ac:dyDescent="0.35">
@@ -11471,10 +11471,10 @@
         <v>1</v>
       </c>
       <c r="D589" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E589" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.35">
@@ -11485,10 +11485,10 @@
         <v>1</v>
       </c>
       <c r="D590" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E590" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="591" spans="2:5" x14ac:dyDescent="0.35">
@@ -11499,10 +11499,10 @@
         <v>1</v>
       </c>
       <c r="D591" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E591" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="592" spans="2:5" x14ac:dyDescent="0.35">
@@ -11513,10 +11513,10 @@
         <v>1</v>
       </c>
       <c r="D592" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E592" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.35">
@@ -11527,10 +11527,10 @@
         <v>1</v>
       </c>
       <c r="D593" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E593" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.35">
@@ -11541,10 +11541,10 @@
         <v>1</v>
       </c>
       <c r="D594" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E594" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="595" spans="2:5" x14ac:dyDescent="0.35">
@@ -11555,10 +11555,10 @@
         <v>1</v>
       </c>
       <c r="D595" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E595" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="596" spans="2:5" x14ac:dyDescent="0.35">
@@ -11569,10 +11569,10 @@
         <v>1</v>
       </c>
       <c r="D596" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E596" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.35">
@@ -11583,10 +11583,10 @@
         <v>1</v>
       </c>
       <c r="D597" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E597" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.35">
@@ -11597,10 +11597,10 @@
         <v>1</v>
       </c>
       <c r="D598" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E598" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="599" spans="2:5" x14ac:dyDescent="0.35">
@@ -11611,10 +11611,10 @@
         <v>1</v>
       </c>
       <c r="D599" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E599" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="600" spans="2:5" x14ac:dyDescent="0.35">
@@ -11625,10 +11625,10 @@
         <v>1</v>
       </c>
       <c r="D600" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E600" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="601" spans="2:5" x14ac:dyDescent="0.35">
@@ -11639,10 +11639,10 @@
         <v>1</v>
       </c>
       <c r="D601" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E601" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="602" spans="2:5" x14ac:dyDescent="0.35">
@@ -11653,10 +11653,10 @@
         <v>1</v>
       </c>
       <c r="D602" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E602" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.35">
@@ -11667,10 +11667,10 @@
         <v>1</v>
       </c>
       <c r="D603" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E603" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="604" spans="2:5" x14ac:dyDescent="0.35">
@@ -11681,10 +11681,10 @@
         <v>1</v>
       </c>
       <c r="D604" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E604" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="605" spans="2:5" x14ac:dyDescent="0.35">
@@ -11695,10 +11695,10 @@
         <v>1</v>
       </c>
       <c r="D605" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E605" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="606" spans="2:5" x14ac:dyDescent="0.35">
@@ -11709,10 +11709,10 @@
         <v>1</v>
       </c>
       <c r="D606" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E606" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="607" spans="2:5" x14ac:dyDescent="0.35">
@@ -11723,10 +11723,10 @@
         <v>1</v>
       </c>
       <c r="D607" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E607" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="608" spans="2:5" x14ac:dyDescent="0.35">
@@ -11737,10 +11737,10 @@
         <v>1</v>
       </c>
       <c r="D608" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E608" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="609" spans="2:5" x14ac:dyDescent="0.35">
@@ -11751,10 +11751,10 @@
         <v>1</v>
       </c>
       <c r="D609" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E609" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="610" spans="2:5" x14ac:dyDescent="0.35">
@@ -11765,10 +11765,10 @@
         <v>1</v>
       </c>
       <c r="D610" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E610" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="611" spans="2:5" x14ac:dyDescent="0.35">
@@ -11779,10 +11779,10 @@
         <v>1</v>
       </c>
       <c r="D611" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E611" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="612" spans="2:5" x14ac:dyDescent="0.35">
@@ -11793,10 +11793,10 @@
         <v>1</v>
       </c>
       <c r="D612" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E612" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="613" spans="2:5" x14ac:dyDescent="0.35">
@@ -11807,10 +11807,10 @@
         <v>1</v>
       </c>
       <c r="D613" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E613" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="614" spans="2:5" x14ac:dyDescent="0.35">
@@ -11821,10 +11821,10 @@
         <v>1</v>
       </c>
       <c r="D614" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E614" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="615" spans="2:5" x14ac:dyDescent="0.35">
@@ -11835,10 +11835,10 @@
         <v>1</v>
       </c>
       <c r="D615" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E615" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="616" spans="2:5" x14ac:dyDescent="0.35">
@@ -11849,10 +11849,10 @@
         <v>1</v>
       </c>
       <c r="D616" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E616" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="617" spans="2:5" x14ac:dyDescent="0.35">
@@ -11863,10 +11863,10 @@
         <v>1</v>
       </c>
       <c r="D617" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E617" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="618" spans="2:5" x14ac:dyDescent="0.35">
@@ -11877,10 +11877,10 @@
         <v>1</v>
       </c>
       <c r="D618" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E618" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="619" spans="2:5" x14ac:dyDescent="0.35">
@@ -11891,10 +11891,10 @@
         <v>1</v>
       </c>
       <c r="D619" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E619" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="620" spans="2:5" x14ac:dyDescent="0.35">
@@ -11905,10 +11905,10 @@
         <v>1</v>
       </c>
       <c r="D620" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E620" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="621" spans="2:5" x14ac:dyDescent="0.35">
@@ -11919,10 +11919,10 @@
         <v>1</v>
       </c>
       <c r="D621" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E621" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="622" spans="2:5" x14ac:dyDescent="0.35">
@@ -11933,10 +11933,10 @@
         <v>1</v>
       </c>
       <c r="D622" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E622" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="623" spans="2:5" x14ac:dyDescent="0.35">
@@ -11947,10 +11947,10 @@
         <v>1</v>
       </c>
       <c r="D623" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E623" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="624" spans="2:5" x14ac:dyDescent="0.35">
@@ -11961,10 +11961,10 @@
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E624" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="625" spans="2:5" x14ac:dyDescent="0.35">
@@ -11975,10 +11975,10 @@
         <v>1</v>
       </c>
       <c r="D625" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E625" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="626" spans="2:5" x14ac:dyDescent="0.35">
@@ -11989,10 +11989,10 @@
         <v>1</v>
       </c>
       <c r="D626" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E626" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="627" spans="2:5" x14ac:dyDescent="0.35">
@@ -12003,10 +12003,10 @@
         <v>1</v>
       </c>
       <c r="D627" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E627" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="628" spans="2:5" x14ac:dyDescent="0.35">
@@ -12017,10 +12017,10 @@
         <v>1</v>
       </c>
       <c r="D628" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E628" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="629" spans="2:5" x14ac:dyDescent="0.35">
@@ -12031,10 +12031,10 @@
         <v>1</v>
       </c>
       <c r="D629" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E629" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="630" spans="2:5" x14ac:dyDescent="0.35">
@@ -12045,10 +12045,10 @@
         <v>1</v>
       </c>
       <c r="D630" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E630" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="631" spans="2:5" x14ac:dyDescent="0.35">
@@ -12059,10 +12059,10 @@
         <v>1</v>
       </c>
       <c r="D631" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E631" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="632" spans="2:5" x14ac:dyDescent="0.35">
@@ -12073,10 +12073,10 @@
         <v>1</v>
       </c>
       <c r="D632" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E632" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="633" spans="2:5" x14ac:dyDescent="0.35">
@@ -12087,10 +12087,10 @@
         <v>1</v>
       </c>
       <c r="D633" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E633" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="634" spans="2:5" x14ac:dyDescent="0.35">
@@ -12101,24 +12101,24 @@
         <v>1</v>
       </c>
       <c r="D634" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E634" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="635" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B635" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C635">
         <v>1</v>
       </c>
       <c r="D635" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E635" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="636" spans="2:5" x14ac:dyDescent="0.35">
@@ -12129,24 +12129,24 @@
         <v>1</v>
       </c>
       <c r="D636" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E636" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="637" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B637" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C637">
         <v>1</v>
       </c>
       <c r="D637" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E637" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="638" spans="2:5" x14ac:dyDescent="0.35">
@@ -12157,10 +12157,10 @@
         <v>1</v>
       </c>
       <c r="D638" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E638" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="639" spans="2:5" x14ac:dyDescent="0.35">
@@ -12171,10 +12171,10 @@
         <v>1</v>
       </c>
       <c r="D639" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E639" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="640" spans="2:5" x14ac:dyDescent="0.35">
@@ -12185,10 +12185,10 @@
         <v>1</v>
       </c>
       <c r="D640" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E640" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="641" spans="2:5" x14ac:dyDescent="0.35">
@@ -12199,10 +12199,10 @@
         <v>1</v>
       </c>
       <c r="D641" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E641" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="642" spans="2:5" x14ac:dyDescent="0.35">
@@ -12213,10 +12213,10 @@
         <v>1</v>
       </c>
       <c r="D642" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E642" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="643" spans="2:5" x14ac:dyDescent="0.35">
@@ -12227,10 +12227,10 @@
         <v>1</v>
       </c>
       <c r="D643" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E643" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.35">
@@ -12241,10 +12241,10 @@
         <v>1</v>
       </c>
       <c r="D644" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E644" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="645" spans="2:5" x14ac:dyDescent="0.35">
@@ -12255,10 +12255,10 @@
         <v>1</v>
       </c>
       <c r="D645" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E645" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="646" spans="2:5" x14ac:dyDescent="0.35">
@@ -12269,10 +12269,10 @@
         <v>1</v>
       </c>
       <c r="D646" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E646" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="647" spans="2:5" x14ac:dyDescent="0.35">
@@ -12283,24 +12283,24 @@
         <v>1</v>
       </c>
       <c r="D647" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E647" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="648" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B648" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C648">
         <v>1</v>
       </c>
       <c r="D648" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E648" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="649" spans="2:5" x14ac:dyDescent="0.35">
@@ -12311,10 +12311,10 @@
         <v>1</v>
       </c>
       <c r="D649" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E649" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="650" spans="2:5" x14ac:dyDescent="0.35">
@@ -12325,10 +12325,10 @@
         <v>1</v>
       </c>
       <c r="D650" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E650" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="651" spans="2:5" x14ac:dyDescent="0.35">
@@ -12339,10 +12339,10 @@
         <v>1</v>
       </c>
       <c r="D651" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E651" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="652" spans="2:5" x14ac:dyDescent="0.35">
@@ -12353,10 +12353,10 @@
         <v>1</v>
       </c>
       <c r="D652" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E652" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="653" spans="2:5" x14ac:dyDescent="0.35">
@@ -12367,66 +12367,66 @@
         <v>1</v>
       </c>
       <c r="D653" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E653" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="654" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B654" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C654">
         <v>1</v>
       </c>
       <c r="D654" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E654" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="655" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B655" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C655">
         <v>1</v>
       </c>
       <c r="D655" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E655" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="656" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B656" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C656">
         <v>1</v>
       </c>
       <c r="D656" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E656" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B657" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C657">
         <v>1</v>
       </c>
       <c r="D657" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E657" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="658" spans="2:5" x14ac:dyDescent="0.35">
@@ -12437,10 +12437,10 @@
         <v>1</v>
       </c>
       <c r="D658" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E658" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="659" spans="2:5" x14ac:dyDescent="0.35">
@@ -12451,10 +12451,10 @@
         <v>1</v>
       </c>
       <c r="D659" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E659" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="660" spans="2:5" x14ac:dyDescent="0.35">
@@ -12465,10 +12465,10 @@
         <v>1</v>
       </c>
       <c r="D660" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E660" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -12512,22 +12512,22 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>451</v>
+      </c>
+      <c r="L1" t="s">
         <v>453</v>
       </c>
-      <c r="L1" t="s">
-        <v>455</v>
-      </c>
       <c r="M1" t="s">
+        <v>456</v>
+      </c>
+      <c r="N1" t="s">
+        <v>454</v>
+      </c>
+      <c r="O1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" t="s">
         <v>458</v>
-      </c>
-      <c r="N1" t="s">
-        <v>456</v>
-      </c>
-      <c r="O1" t="s">
-        <v>459</v>
-      </c>
-      <c r="P1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -12535,7 +12535,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -12595,47 +12595,47 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
